--- a/IMU_WheelSpeed_BOM.xlsx
+++ b/IMU_WheelSpeed_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adivp\Desktop\LHR\DataAcq-Speed\IMU_WheelSpeed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adivp\Desktop\LHR\DataAcq-Speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01BE2B5-1220-4631-8E6C-5796EF976263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704BD41C-5970-466E-AE42-CE2C1495C986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A581E9C9-3E90-4C11-B060-929A2756874D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>Designator</t>
   </si>
@@ -71,15 +71,6 @@
     <t>TP1</t>
   </si>
   <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>CONN_SD-43650-006_02_MOL</t>
-  </si>
-  <si>
-    <t>PWR_OUT</t>
-  </si>
-  <si>
     <t>TP6</t>
   </si>
   <si>
@@ -92,15 +83,6 @@
     <t>MAGSLV_O</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>LDO_3.3_to_1.8_2.2mmx1.3mm</t>
-  </si>
-  <si>
-    <t>TPS71518__SC70</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -110,9 +92,6 @@
     <t>Conn_01x06_Socket</t>
   </si>
   <si>
-    <t>J4</t>
-  </si>
-  <si>
     <t>CAN_OUT</t>
   </si>
   <si>
@@ -125,12 +104,6 @@
     <t>CAN_IN</t>
   </si>
   <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>LDO1.8V</t>
-  </si>
-  <si>
     <t>TP10</t>
   </si>
   <si>
@@ -152,12 +125,6 @@
     <t>1k</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>PWR_IN</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -224,9 +191,6 @@
     <t>3.3V</t>
   </si>
   <si>
-    <t>R2, R3</t>
-  </si>
-  <si>
     <t>C1, C2</t>
   </si>
   <si>
@@ -251,27 +215,12 @@
     <t>https://www.mouser.com/ProductDetail/Molex/105431-1206?qs=gZXFycFWdAPqH%252BGRvrmWaA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/538-43650-0215</t>
-  </si>
-  <si>
-    <t>1x2 Connector</t>
-  </si>
-  <si>
-    <t>Connector_Molex:Molex_Nano-Fit_105309-xx04_1x04_P2.50mm_Vertical</t>
-  </si>
-  <si>
     <t>Connector_Molex:Molex_Nano-Fit_105309-xx03_1x03_P2.50mm_Vertical</t>
   </si>
   <si>
     <t>Mag_Encoder</t>
   </si>
   <si>
-    <t>Molex_Nano-Fit_105313-xx04_1x04_P2.50mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Molex/105430-2104?qs=gZXFycFWdAPUuxyvhvhCjQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/Molex/105430-2103?qs=gZXFycFWdAOlOh8KT1P6aQ%3D%3D</t>
   </si>
   <si>
@@ -281,9 +230,6 @@
     <t>https://www.thethriftybot.com/products/thrifty-absolute-magnetic-encoder?variant=46774386229547</t>
   </si>
   <si>
-    <t>idk</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -293,9 +239,6 @@
     <t>https://www.mouser.com/ProductDetail/Vishay-Beyschlag/MCU08050D1052BP500?qs=wTZ%2FFzl837YdnMD%2FMn1LMQ%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TPS71518DCKR?qs=Gse6rAGbi7%2FmSAtSseH9pg%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/STMicroelectronics/LSM6DSLTR?qs=dTJS0cRn7oit9g7CgtPlyQ%3D%3D&amp;srsltid=AfmBOorehMIXdS9ahhILaC_CevmTkWEvtsouv_38L2CIv58gP7Av3NbQ</t>
   </si>
   <si>
@@ -303,13 +246,49 @@
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/TAIYO-YUDEN/MAASL105CD7105MFCA01?qs=sGAEpiMZZMt7gvpyg0xT8jBHDtGZvLzXz1pHho7N5s5aZPC36RqY4A%3D%3D</t>
+  </si>
+  <si>
+    <t>Molex_Nano-Fit_105309-xx05_1x05_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>Molex_MicroFit3.0_1x4xP3.00mm_PolarizingPeg_Vertical</t>
+  </si>
+  <si>
+    <t>R2, R4, R5</t>
+  </si>
+  <si>
+    <t>Molex_Nano-Fit_105309-xx03_1x03_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>1x4 Connector</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/c/connectors/?q=molex%20micro-fit%201x4&amp;m=Molex</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/105431-1105?qs=gZXFycFWdAPORe9dcVavOw%3D%3D</t>
+  </si>
+  <si>
+    <t>Mag_Encoder_Conn</t>
+  </si>
+  <si>
+    <t>**Not needed for IMU functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +423,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -644,7 +631,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -768,8 +755,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -812,19 +814,22 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -858,6 +863,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1203,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DAF7A-81FB-4B9E-B251-744F8F78D59C}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,33 +1228,32 @@
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,75 +1266,72 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="6">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1342,239 +1344,230 @@
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="7">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6">
-        <v>4</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="F15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="6">
-        <v>2</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="6">
-        <v>2</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -1583,25 +1576,24 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -1610,24 +1602,12 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1636,12 +1616,12 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -1650,13 +1630,15 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
@@ -1665,253 +1647,198 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="str">
         <f>A4</f>
         <v>Designator</v>
       </c>
-      <c r="B30" s="1" t="str">
+      <c r="B26" s="1" t="str">
         <f>B4</f>
         <v>Footprint</v>
       </c>
-      <c r="C30" s="1" t="str">
+      <c r="C26" s="1" t="str">
         <f>C4</f>
         <v>Quantity</v>
       </c>
-      <c r="D30" s="1" t="str">
+      <c r="D26" s="1" t="str">
         <f>D4</f>
         <v>Designation</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="str">
+        <f>A4</f>
+        <v>Designator</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>B4</f>
+        <v>Footprint</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>C4</f>
+        <v>Quantity</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>D4</f>
+        <v>Designation</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>46</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="str">
-        <f>A4</f>
-        <v>Designator</v>
-      </c>
-      <c r="B35" s="1" t="str">
-        <f>B4</f>
-        <v>Footprint</v>
-      </c>
-      <c r="C35" s="1" t="str">
-        <f>C4</f>
-        <v>Quantity</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f>D4</f>
-        <v>Designation</v>
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
     <sortCondition ref="A2:A23"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="I13" r:id="rId1" xr:uid="{429F1D3D-ED0C-4720-AF22-E6BFABAF0A63}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/IMU_WheelSpeed_BOM.xlsx
+++ b/IMU_WheelSpeed_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adivp\Desktop\LHR\DataAcq-Speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704BD41C-5970-466E-AE42-CE2C1495C986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3756F59F-3C15-42A1-ABD5-F20B0A025D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A581E9C9-3E90-4C11-B060-929A2756874D}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A581E9C9-3E90-4C11-B060-929A2756874D}"/>
   </bookViews>
   <sheets>
     <sheet name="IMU_WheelSpeed_BOM" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>R_0805_2012Metric</t>
   </si>
   <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>**Not needed for IMU functionality</t>
+  </si>
+  <si>
+    <t>2k</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -824,10 +824,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1211,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DAF7A-81FB-4B9E-B251-744F8F78D59C}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,15 +1229,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -1250,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1267,16 +1266,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="7">
+        <v>34</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1284,51 +1283,51 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="7">
+        <v>34</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="7">
+        <v>34</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1347,14 +1346,14 @@
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>58</v>
+      <c r="I7" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1373,22 +1372,22 @@
       <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>59</v>
+      <c r="I8" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1397,24 +1396,24 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="7">
+        <v>73</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1425,14 +1424,14 @@
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1440,25 +1439,25 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1472,24 +1471,24 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -1498,19 +1497,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>80</v>
+        <v>43</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1524,19 +1523,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1553,16 +1552,16 @@
         <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="7">
+        <v>75</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1579,16 +1578,16 @@
         <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1607,7 +1606,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1616,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1632,8 +1631,8 @@
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>82</v>
+      <c r="F19" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,35 +1651,35 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1703,30 +1702,30 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>42</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1734,13 +1733,13 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1763,30 +1762,30 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>46</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1819,7 +1818,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
@@ -1828,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1837,8 +1836,15 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" xr:uid="{429F1D3D-ED0C-4720-AF22-E6BFABAF0A63}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{8388FED2-3C19-4655-9BEB-FC11572BD191}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{88C3D3F8-BC0C-42B0-A660-70E1B1F616EA}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{F8208C39-6E45-4F95-B991-B8D202B0BC21}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{D8759320-55A0-4581-84A3-0339E24B1F18}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{B80A0B92-B8E2-483D-BF80-79CCE82BEF1A}"/>
+    <hyperlink ref="I9" r:id="rId7" xr:uid="{EBCFB1E2-D11A-41E4-A6B7-6E51976AA61B}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{48296E6E-F63C-49CE-9E85-5544758BD538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/IMU_WheelSpeed_BOM.xlsx
+++ b/IMU_WheelSpeed_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adivp\Desktop\LHR\DataAcq-Speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3756F59F-3C15-42A1-ABD5-F20B0A025D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BDB4E0-35F0-4096-BFE0-8421D866AE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A581E9C9-3E90-4C11-B060-929A2756874D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A581E9C9-3E90-4C11-B060-929A2756874D}"/>
   </bookViews>
   <sheets>
     <sheet name="IMU_WheelSpeed_BOM" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>Designator</t>
   </si>
@@ -209,18 +209,12 @@
     <t>https://www.mouser.com/ProductDetail/Kingbright/APTD2012LCGCK?qs=AQlKX63v8RvNHN%2F9EGvNTg%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Molex/105431-1206?qs=gZXFycFWdAPqH%252BGRvrmWaA%3D%3D</t>
-  </si>
-  <si>
     <t>Connector_Molex:Molex_Nano-Fit_105309-xx03_1x03_P2.50mm_Vertical</t>
   </si>
   <si>
     <t>Mag_Encoder</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Molex/105430-2103?qs=gZXFycFWdAOlOh8KT1P6aQ%3D%3D</t>
-  </si>
-  <si>
     <t>Absolute Encoder (may already have)</t>
   </si>
   <si>
@@ -230,21 +224,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/TE-Connectivity-Holsworthy/CPF0805B499KE1?qs=DfH2yQaBz6vho7KYU49MHw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Vishay-Beyschlag/MCU08050D1052BP500?qs=wTZ%2FFzl837YdnMD%2FMn1LMQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.mouser.com/ProductDetail/STMicroelectronics/LSM6DSLTR?qs=dTJS0cRn7oit9g7CgtPlyQ%3D%3D&amp;srsltid=AfmBOorehMIXdS9ahhILaC_CevmTkWEvtsouv_38L2CIv58gP7Av3NbQ</t>
   </si>
   <si>
     <t>https://www.mouser.com/ProductDetail/Monolithic-Power-Systems-MPS/MA730GQ-P?qs=YCa%2FAAYMW03olhL8jPL5vA%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/TAIYO-YUDEN/MAASL105CD7105MFCA01?qs=sGAEpiMZZMt7gvpyg0xT8jBHDtGZvLzXz1pHho7N5s5aZPC36RqY4A%3D%3D</t>
-  </si>
-  <si>
     <t>Molex_Nano-Fit_105309-xx05_1x05_P2.50mm_Vertical</t>
   </si>
   <si>
@@ -272,9 +257,6 @@
     <t>https://www.mouser.com/c/connectors/?q=molex%20micro-fit%201x4&amp;m=Molex</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Molex/105431-1105?qs=gZXFycFWdAPORe9dcVavOw%3D%3D</t>
-  </si>
-  <si>
     <t>Mag_Encoder_Conn</t>
   </si>
   <si>
@@ -282,6 +264,30 @@
   </si>
   <si>
     <t>2k</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panasonic/ERJ-UP6D2001V?qs=ZcfC38r4PotqoqPLMndLrQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Walsin/WF08P1002FTL?qs=1mbolxNpo8fEH7MbS4WA%2FQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/105309-1105?qs=5aG0NVq1C4xeVnIB0kAHNg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/105309-1103?qs=5aG0NVq1C4zjntfwyV%2FsMA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KYOCERA-AVX/KGM21AV51H105ZU?qs=Jm2GQyTW%2FbgC6k4YwVndlA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Molex/105309-1106?qs=OAhjpuo3Vu4fcl1cWH9BXw%3D%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full Mouser Cart: </t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=3cda0062d5</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,8 +636,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -770,6 +782,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +865,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -827,6 +876,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1210,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54DAF7A-81FB-4B9E-B251-744F8F78D59C}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1276,7 @@
     <col min="6" max="6" width="49.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="160.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1327,7 +1379,7 @@
         <v>47</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1379,15 +1431,15 @@
         <v>18</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1396,24 +1448,24 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1428,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1439,7 +1491,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1457,7 +1509,7 @@
         <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1471,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>41</v>
@@ -1483,12 +1535,12 @@
         <v>42</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -1500,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1535,7 +1587,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1552,16 +1604,16 @@
         <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1578,19 +1630,19 @@
         <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1604,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1617,8 +1669,11 @@
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1631,11 +1686,8 @@
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
@@ -1648,8 +1700,16 @@
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1663,26 +1723,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="str">
         <f>A4</f>
         <v>Designator</v>
@@ -1700,7 +1760,7 @@
         <v>Designation</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1714,7 +1774,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1728,12 +1788,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1742,7 +1802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="str">
         <f>A4</f>
         <v>Designator</v>
@@ -1760,7 +1820,7 @@
         <v>Designation</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1827,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1835,16 +1895,12 @@
     <sortCondition ref="A2:A23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1" xr:uid="{429F1D3D-ED0C-4720-AF22-E6BFABAF0A63}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{8388FED2-3C19-4655-9BEB-FC11572BD191}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{88C3D3F8-BC0C-42B0-A660-70E1B1F616EA}"/>
-    <hyperlink ref="I6" r:id="rId4" xr:uid="{F8208C39-6E45-4F95-B991-B8D202B0BC21}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{D8759320-55A0-4581-84A3-0339E24B1F18}"/>
-    <hyperlink ref="I8" r:id="rId6" xr:uid="{B80A0B92-B8E2-483D-BF80-79CCE82BEF1A}"/>
-    <hyperlink ref="I9" r:id="rId7" xr:uid="{EBCFB1E2-D11A-41E4-A6B7-6E51976AA61B}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{48296E6E-F63C-49CE-9E85-5544758BD538}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{8388FED2-3C19-4655-9BEB-FC11572BD191}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{88C3D3F8-BC0C-42B0-A660-70E1B1F616EA}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{D8759320-55A0-4581-84A3-0339E24B1F18}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{EBCFB1E2-D11A-41E4-A6B7-6E51976AA61B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>